--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H2">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I2">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J2">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>282.2018078101506</v>
+        <v>284.8291952987599</v>
       </c>
       <c r="R2">
-        <v>282.2018078101506</v>
+        <v>1139.31678119504</v>
       </c>
       <c r="S2">
-        <v>0.02152174330112942</v>
+        <v>0.01956841878801259</v>
       </c>
       <c r="T2">
-        <v>0.02152174330112942</v>
+        <v>0.01298110164510781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H3">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I3">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J3">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>42.16278238693873</v>
+        <v>45.80185681963</v>
       </c>
       <c r="R3">
-        <v>42.16278238693873</v>
+        <v>274.81114091778</v>
       </c>
       <c r="S3">
-        <v>0.003215488187104509</v>
+        <v>0.00314669258035506</v>
       </c>
       <c r="T3">
-        <v>0.003215488187104509</v>
+        <v>0.003131132106840311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H4">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I4">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J4">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>7.862033592524713</v>
+        <v>8.764959865231667</v>
       </c>
       <c r="R4">
-        <v>7.862033592524713</v>
+        <v>52.58975919139</v>
       </c>
       <c r="S4">
-        <v>0.0005995874729371137</v>
+        <v>0.0006021728394909465</v>
       </c>
       <c r="T4">
-        <v>0.0005995874729371137</v>
+        <v>0.0005991950797381516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H5">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I5">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J5">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>9.01420919709941</v>
+        <v>9.286532407363332</v>
       </c>
       <c r="R5">
-        <v>9.01420919709941</v>
+        <v>55.71919444417999</v>
       </c>
       <c r="S5">
-        <v>0.0006874566038682738</v>
+        <v>0.0006380060690236678</v>
       </c>
       <c r="T5">
-        <v>0.0006874566038682738</v>
+        <v>0.000634851113054575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H6">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I6">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J6">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>171.7931242224591</v>
+        <v>174.530613103905</v>
       </c>
       <c r="R6">
-        <v>171.7931242224591</v>
+        <v>1047.18367862343</v>
       </c>
       <c r="S6">
-        <v>0.01310157276845699</v>
+        <v>0.01199065329297962</v>
       </c>
       <c r="T6">
-        <v>0.01310157276845699</v>
+        <v>0.01193135921253631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H7">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I7">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J7">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N7">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O7">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P7">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q7">
-        <v>10.656989543992</v>
+        <v>10.8502743084625</v>
       </c>
       <c r="R7">
-        <v>10.656989543992</v>
+        <v>43.40109723384999</v>
       </c>
       <c r="S7">
-        <v>0.0008127410490683839</v>
+        <v>0.0007454387230568152</v>
       </c>
       <c r="T7">
-        <v>0.0008127410490683839</v>
+        <v>0.0004945016732842861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H8">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J8">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N8">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O8">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P8">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q8">
-        <v>2570.330345915034</v>
+        <v>2867.653474736269</v>
       </c>
       <c r="R8">
-        <v>2570.330345915034</v>
+        <v>17205.92084841761</v>
       </c>
       <c r="S8">
-        <v>0.1960228048613401</v>
+        <v>0.1970143688173496</v>
       </c>
       <c r="T8">
-        <v>0.1960228048613401</v>
+        <v>0.1960401278358358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H9">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J9">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N9">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P9">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q9">
-        <v>384.0240425046011</v>
+        <v>461.1319907722847</v>
       </c>
       <c r="R9">
-        <v>384.0240425046011</v>
+        <v>4150.187916950562</v>
       </c>
       <c r="S9">
-        <v>0.02928707979718604</v>
+        <v>0.03168082507313572</v>
       </c>
       <c r="T9">
-        <v>0.02928707979718604</v>
+        <v>0.04728624390112515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H10">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J10">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N10">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O10">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P10">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q10">
-        <v>71.60841271812292</v>
+        <v>88.24540471383678</v>
       </c>
       <c r="R10">
-        <v>71.60841271812292</v>
+        <v>794.208642424531</v>
       </c>
       <c r="S10">
-        <v>0.005461119787572598</v>
+        <v>0.006062661637430593</v>
       </c>
       <c r="T10">
-        <v>0.005461119787572598</v>
+        <v>0.009049022435991837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H11">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J11">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N11">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O11">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P11">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q11">
-        <v>82.10257625039077</v>
+        <v>93.49658449968021</v>
       </c>
       <c r="R11">
-        <v>82.10257625039077</v>
+        <v>841.469260497122</v>
       </c>
       <c r="S11">
-        <v>0.006261443128709672</v>
+        <v>0.006423429728892382</v>
       </c>
       <c r="T11">
-        <v>0.006261443128709672</v>
+        <v>0.009587498562330836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H12">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J12">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N12">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O12">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P12">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q12">
-        <v>1564.713861456187</v>
+        <v>1757.170007064383</v>
       </c>
       <c r="R12">
-        <v>1564.713861456187</v>
+        <v>15814.53006357945</v>
       </c>
       <c r="S12">
-        <v>0.1193308091372467</v>
+        <v>0.12072160841484</v>
       </c>
       <c r="T12">
-        <v>0.1193308091372467</v>
+        <v>0.1801869555626201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H13">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J13">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N13">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O13">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P13">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q13">
-        <v>97.06523084873238</v>
+        <v>109.2403002784442</v>
       </c>
       <c r="R13">
-        <v>97.06523084873238</v>
+        <v>655.441801670665</v>
       </c>
       <c r="S13">
-        <v>0.007402549962389527</v>
+        <v>0.007505059100892493</v>
       </c>
       <c r="T13">
-        <v>0.007402549962389527</v>
+        <v>0.007467946395922476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H14">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I14">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J14">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N14">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O14">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P14">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q14">
-        <v>177.4292536647364</v>
+        <v>76.45859832941866</v>
       </c>
       <c r="R14">
-        <v>177.4292536647364</v>
+        <v>458.751589976512</v>
       </c>
       <c r="S14">
-        <v>0.01353140463952082</v>
+        <v>0.005252881013426849</v>
       </c>
       <c r="T14">
-        <v>0.01353140463952082</v>
+        <v>0.005226905385430697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H15">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I15">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J15">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N15">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P15">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q15">
-        <v>26.50908252287302</v>
+        <v>12.29489754250934</v>
       </c>
       <c r="R15">
-        <v>26.50908252287302</v>
+        <v>110.654077882584</v>
       </c>
       <c r="S15">
-        <v>0.002021679710817247</v>
+        <v>0.0008446876515420783</v>
       </c>
       <c r="T15">
-        <v>0.002021679710817247</v>
+        <v>0.001260765974966886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H16">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I16">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J16">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N16">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O16">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P16">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q16">
-        <v>4.943110618012742</v>
+        <v>2.352836565810223</v>
       </c>
       <c r="R16">
-        <v>4.943110618012742</v>
+        <v>21.175529092292</v>
       </c>
       <c r="S16">
-        <v>0.0003769797176548452</v>
+        <v>0.0001616452667755166</v>
       </c>
       <c r="T16">
-        <v>0.0003769797176548452</v>
+        <v>0.0002412688903323745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H17">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I17">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J17">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N17">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O17">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P17">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q17">
-        <v>5.667520072355903</v>
+        <v>2.492845757833777</v>
       </c>
       <c r="R17">
-        <v>5.667520072355903</v>
+        <v>22.435611820504</v>
       </c>
       <c r="S17">
-        <v>0.0004322258354677161</v>
+        <v>0.0001712642192877914</v>
       </c>
       <c r="T17">
-        <v>0.0004322258354677161</v>
+        <v>0.0002556259701596437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H18">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I18">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J18">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N18">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O18">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P18">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q18">
-        <v>108.0118020931682</v>
+        <v>46.85041513915601</v>
       </c>
       <c r="R18">
-        <v>108.0118020931682</v>
+        <v>421.653736252404</v>
       </c>
       <c r="S18">
-        <v>0.008237375572396829</v>
+        <v>0.003218730941094792</v>
       </c>
       <c r="T18">
-        <v>0.008237375572396829</v>
+        <v>0.004804221354126548</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H19">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I19">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J19">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N19">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O19">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P19">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q19">
-        <v>6.700388334774476</v>
+        <v>2.912611413463333</v>
       </c>
       <c r="R19">
-        <v>6.700388334774476</v>
+        <v>17.47566848078</v>
       </c>
       <c r="S19">
-        <v>0.00051099615157643</v>
+        <v>0.0002001030822897667</v>
       </c>
       <c r="T19">
-        <v>0.00051099615157643</v>
+        <v>0.0001991135675428771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H20">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I20">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J20">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N20">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O20">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P20">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q20">
-        <v>399.4045859165612</v>
+        <v>192.7832374823787</v>
       </c>
       <c r="R20">
-        <v>399.4045859165612</v>
+        <v>1156.699424894272</v>
       </c>
       <c r="S20">
-        <v>0.03046005636212275</v>
+        <v>0.01324465043833411</v>
       </c>
       <c r="T20">
-        <v>0.03046005636212275</v>
+        <v>0.01317915531064211</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H21">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I21">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J21">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N21">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P21">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q21">
-        <v>59.67363841862541</v>
+        <v>31.00043951298934</v>
       </c>
       <c r="R21">
-        <v>59.67363841862541</v>
+        <v>279.003955616904</v>
       </c>
       <c r="S21">
-        <v>0.004550930193735902</v>
+        <v>0.002129801273940086</v>
       </c>
       <c r="T21">
-        <v>0.004550930193735902</v>
+        <v>0.003178904030054979</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H22">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I22">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J22">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N22">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O22">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P22">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q22">
-        <v>11.12725781543161</v>
+        <v>5.932458354383557</v>
       </c>
       <c r="R22">
-        <v>11.12725781543161</v>
+        <v>53.392125189452</v>
       </c>
       <c r="S22">
-        <v>0.0008486054295949531</v>
+        <v>0.0004075734911909392</v>
       </c>
       <c r="T22">
-        <v>0.0008486054295949531</v>
+        <v>0.0006083370451241931</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H23">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I23">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J23">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N23">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O23">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P23">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q23">
-        <v>12.75794977952387</v>
+        <v>6.285478497380445</v>
       </c>
       <c r="R23">
-        <v>12.75794977952387</v>
+        <v>56.569306476424</v>
       </c>
       <c r="S23">
-        <v>0.0009729679704544301</v>
+        <v>0.0004318267844375155</v>
       </c>
       <c r="T23">
-        <v>0.0009729679704544301</v>
+        <v>0.0006445370852814683</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H24">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I24">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J24">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N24">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O24">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P24">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q24">
-        <v>243.1414673627601</v>
+        <v>118.128960055036</v>
       </c>
       <c r="R24">
-        <v>243.1414673627601</v>
+        <v>1063.160640495324</v>
       </c>
       <c r="S24">
-        <v>0.01854285869763673</v>
+        <v>0.008115730407919386</v>
       </c>
       <c r="T24">
-        <v>0.01854285869763673</v>
+        <v>0.01211339687709307</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H25">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I25">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J25">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N25">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O25">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P25">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q25">
-        <v>15.08300222796145</v>
+        <v>7.343878518363333</v>
       </c>
       <c r="R25">
-        <v>15.08300222796145</v>
+        <v>44.06327111018</v>
       </c>
       <c r="S25">
-        <v>0.00115028498463387</v>
+        <v>0.0005045412926328931</v>
       </c>
       <c r="T25">
-        <v>0.00115028498463387</v>
+        <v>0.0005020463233212658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H26">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I26">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J26">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N26">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O26">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P26">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q26">
-        <v>3636.527223576802</v>
+        <v>471.3731895272773</v>
       </c>
       <c r="R26">
-        <v>3636.527223576802</v>
+        <v>2828.239137163664</v>
       </c>
       <c r="S26">
-        <v>0.2773348832196025</v>
+        <v>0.03238441890914948</v>
       </c>
       <c r="T26">
-        <v>0.2773348832196025</v>
+        <v>0.03222427714764652</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H27">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I27">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J27">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N27">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P27">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q27">
-        <v>543.320778706692</v>
+        <v>75.79899705398869</v>
       </c>
       <c r="R27">
-        <v>543.320778706692</v>
+        <v>682.1909734858981</v>
       </c>
       <c r="S27">
-        <v>0.04143563225279442</v>
+        <v>0.005207564893437175</v>
       </c>
       <c r="T27">
-        <v>0.04143563225279442</v>
+        <v>0.007772720032181723</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H28">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I28">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J28">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N28">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O28">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P28">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q28">
-        <v>101.3122467703167</v>
+        <v>14.50541993568878</v>
       </c>
       <c r="R28">
-        <v>101.3122467703167</v>
+        <v>130.548779421199</v>
       </c>
       <c r="S28">
-        <v>0.007726442949360176</v>
+        <v>0.0009965556083526262</v>
       </c>
       <c r="T28">
-        <v>0.007726442949360176</v>
+        <v>0.001487441423915297</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H29">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I29">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J29">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N29">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O29">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P29">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q29">
-        <v>116.1594867114431</v>
+        <v>15.36858746490422</v>
       </c>
       <c r="R29">
-        <v>116.1594867114431</v>
+        <v>138.317287184138</v>
       </c>
       <c r="S29">
-        <v>0.008858747838626391</v>
+        <v>0.00105585719672451</v>
       </c>
       <c r="T29">
-        <v>0.008858747838626391</v>
+        <v>0.001575953934716502</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H30">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I30">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J30">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N30">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O30">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P30">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q30">
-        <v>2213.771690217403</v>
+        <v>288.8364434785071</v>
       </c>
       <c r="R30">
-        <v>2213.771690217403</v>
+        <v>2599.527991306563</v>
       </c>
       <c r="S30">
-        <v>0.168830336041712</v>
+        <v>0.01984372592598537</v>
       </c>
       <c r="T30">
-        <v>0.168830336041712</v>
+        <v>0.02961839730742687</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.812639666666667</v>
+      </c>
+      <c r="H31">
+        <v>5.437919000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.06072177355778616</v>
+      </c>
+      <c r="J31">
+        <v>0.07390634043485356</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N31">
+        <v>19.812515</v>
+      </c>
+      <c r="O31">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P31">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q31">
+        <v>17.95647529271417</v>
+      </c>
+      <c r="R31">
+        <v>107.738851756285</v>
+      </c>
+      <c r="S31">
+        <v>0.001233651024136997</v>
+      </c>
+      <c r="T31">
+        <v>0.001227550588966631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.880867</v>
+      </c>
+      <c r="H32">
+        <v>29.761734</v>
+      </c>
+      <c r="I32">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J32">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>260.047928</v>
+      </c>
+      <c r="N32">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O32">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P32">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q32">
+        <v>3869.738630193575</v>
+      </c>
+      <c r="R32">
+        <v>15478.9545207743</v>
+      </c>
+      <c r="S32">
+        <v>0.2658599166295076</v>
+      </c>
+      <c r="T32">
+        <v>0.1763634884614012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.880867</v>
+      </c>
+      <c r="H33">
+        <v>29.761734</v>
+      </c>
+      <c r="I33">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J33">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>41.816914</v>
+      </c>
+      <c r="N33">
+        <v>125.450742</v>
+      </c>
+      <c r="O33">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P33">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q33">
+        <v>622.271935584438</v>
+      </c>
+      <c r="R33">
+        <v>3733.631613506628</v>
+      </c>
+      <c r="S33">
+        <v>0.04275150875166094</v>
+      </c>
+      <c r="T33">
+        <v>0.0425401014715857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.880867</v>
+      </c>
+      <c r="H34">
+        <v>29.761734</v>
+      </c>
+      <c r="I34">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J34">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N34">
+        <v>24.007121</v>
+      </c>
+      <c r="O34">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P34">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q34">
+        <v>119.082258217969</v>
+      </c>
+      <c r="R34">
+        <v>714.493549307814</v>
+      </c>
+      <c r="S34">
+        <v>0.008181224177483803</v>
+      </c>
+      <c r="T34">
+        <v>0.008140767819297842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.880867</v>
+      </c>
+      <c r="H35">
+        <v>29.761734</v>
+      </c>
+      <c r="I35">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J35">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N35">
+        <v>25.435702</v>
+      </c>
+      <c r="O35">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P35">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q35">
+        <v>126.168432837878</v>
+      </c>
+      <c r="R35">
+        <v>757.0105970272679</v>
+      </c>
+      <c r="S35">
+        <v>0.008668060621416167</v>
+      </c>
+      <c r="T35">
+        <v>0.008625196844838236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="H31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="I31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="J31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="N31">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="O31">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="P31">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="Q31">
-        <v>137.3287892761199</v>
-      </c>
-      <c r="R31">
-        <v>137.3287892761199</v>
-      </c>
-      <c r="S31">
-        <v>0.01047319637528289</v>
-      </c>
-      <c r="T31">
-        <v>0.01047319637528289</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.880867</v>
+      </c>
+      <c r="H36">
+        <v>29.761734</v>
+      </c>
+      <c r="I36">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J36">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.345759</v>
+      </c>
+      <c r="N36">
+        <v>478.037277</v>
+      </c>
+      <c r="O36">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P36">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q36">
+        <v>2371.203046693053</v>
+      </c>
+      <c r="R36">
+        <v>14227.21828015832</v>
+      </c>
+      <c r="S36">
+        <v>0.1629070861237764</v>
+      </c>
+      <c r="T36">
+        <v>0.1621015065082718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.880867</v>
+      </c>
+      <c r="H37">
+        <v>29.761734</v>
+      </c>
+      <c r="I37">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J37">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N37">
+        <v>19.812515</v>
+      </c>
+      <c r="O37">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P37">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q37">
+        <v>147.4137003252525</v>
+      </c>
+      <c r="R37">
+        <v>589.6548013010099</v>
+      </c>
+      <c r="S37">
+        <v>0.01012765921003775</v>
+      </c>
+      <c r="T37">
+        <v>0.006718385121287794</v>
       </c>
     </row>
   </sheetData>
